--- a/scored.xlsx
+++ b/scored.xlsx
@@ -12136,7 +12136,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.8195965837473207</v>
+        <v>0.8195965837473205</v>
       </c>
       <c r="C425" t="n">
         <v>0.06</v>
@@ -12163,7 +12163,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.8000190003050219</v>
+        <v>0.8000190003050223</v>
       </c>
       <c r="C426" t="n">
         <v>0.06</v>
@@ -12217,7 +12217,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.7871831489151863</v>
+        <v>0.7871831489151864</v>
       </c>
       <c r="C428" t="n">
         <v>0.06</v>
@@ -12244,7 +12244,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.7832341989461876</v>
+        <v>0.7832341989461877</v>
       </c>
       <c r="C429" t="n">
         <v>0.06</v>
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.7296382222837181</v>
+        <v>0.7296382222837184</v>
       </c>
       <c r="C430" t="n">
         <v>0.06</v>
@@ -12298,7 +12298,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.677179468099137</v>
+        <v>0.6771794680991371</v>
       </c>
       <c r="C431" t="n">
         <v>0.06</v>
@@ -12325,7 +12325,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.6380937849994662</v>
+        <v>0.6380937849994666</v>
       </c>
       <c r="C432" t="n">
         <v>0.06</v>
@@ -12433,7 +12433,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.0715989365611988</v>
+        <v>0.07159893656119878</v>
       </c>
       <c r="C436" t="n">
         <v>0.06</v>
@@ -12460,7 +12460,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.06185934947118026</v>
+        <v>0.06185934947118023</v>
       </c>
       <c r="C437" t="n">
         <v>0.06</v>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.05623145042930551</v>
+        <v>0.0562314504293055</v>
       </c>
       <c r="C438" t="n">
         <v>0.06</v>
@@ -12514,7 +12514,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.05224857528273384</v>
+        <v>0.05224857528273386</v>
       </c>
       <c r="C439" t="n">
         <v>0.06</v>
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.05033910805849947</v>
+        <v>0.05033910805849946</v>
       </c>
       <c r="C440" t="n">
         <v>0.06</v>
@@ -12568,7 +12568,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.0500593618811083</v>
+        <v>0.05005936188110831</v>
       </c>
       <c r="C441" t="n">
         <v>0.06</v>
@@ -12649,7 +12649,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.04789597191585736</v>
+        <v>0.04789597191585735</v>
       </c>
       <c r="C444" t="n">
         <v>0.06</v>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.04760474201602667</v>
+        <v>0.04760474201602666</v>
       </c>
       <c r="C445" t="n">
         <v>0.06</v>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.04637933600643856</v>
+        <v>0.04637933600643857</v>
       </c>
       <c r="C447" t="n">
         <v>0.06</v>
@@ -12757,7 +12757,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.04539128662312039</v>
+        <v>0.0453912866231204</v>
       </c>
       <c r="C448" t="n">
         <v>0.06</v>
@@ -12784,7 +12784,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.04523828238477876</v>
+        <v>0.04523828238477875</v>
       </c>
       <c r="C449" t="n">
         <v>0.06</v>
@@ -12865,7 +12865,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.04397278289397457</v>
+        <v>0.04397278289397456</v>
       </c>
       <c r="C452" t="n">
         <v>0.06</v>
@@ -12892,7 +12892,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.04292506851384956</v>
+        <v>0.04292506851384955</v>
       </c>
       <c r="C453" t="n">
         <v>0.06</v>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0.04271541266104961</v>
+        <v>0.04271541266104962</v>
       </c>
       <c r="C455" t="n">
         <v>0.06</v>
@@ -12973,7 +12973,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0.04229329579229109</v>
+        <v>0.04229329579229108</v>
       </c>
       <c r="C456" t="n">
         <v>0.06</v>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0.04134762238808457</v>
+        <v>0.04134762238808458</v>
       </c>
       <c r="C458" t="n">
         <v>0.06</v>
@@ -13054,7 +13054,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0.04134762238808457</v>
+        <v>0.04134762238808458</v>
       </c>
       <c r="C459" t="n">
         <v>0.06</v>
@@ -13108,7 +13108,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0.04036541990986016</v>
+        <v>0.04036541990986015</v>
       </c>
       <c r="C461" t="n">
         <v>0.06</v>
@@ -13135,7 +13135,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0.04027075103542345</v>
+        <v>0.04027075103542344</v>
       </c>
       <c r="C462" t="n">
         <v>0.06</v>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0.03904836290604577</v>
+        <v>0.03904836290604576</v>
       </c>
       <c r="C464" t="n">
         <v>0.06</v>
@@ -13270,7 +13270,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0.03839529158348817</v>
+        <v>0.03839529158348816</v>
       </c>
       <c r="C467" t="n">
         <v>0.06</v>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0.03745890606237255</v>
+        <v>0.03745890606237254</v>
       </c>
       <c r="C469" t="n">
         <v>0.06</v>
@@ -13351,7 +13351,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0.03717549757291614</v>
+        <v>0.03717549757291615</v>
       </c>
       <c r="C470" t="n">
         <v>0.06</v>
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>0.035647602547294</v>
+        <v>0.03564760254729401</v>
       </c>
       <c r="C472" t="n">
         <v>0.06</v>
@@ -13432,7 +13432,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>0.03552043621548906</v>
+        <v>0.03552043621548907</v>
       </c>
       <c r="C473" t="n">
         <v>0.06</v>
@@ -13459,7 +13459,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0.03540512903794539</v>
+        <v>0.03540512903794537</v>
       </c>
       <c r="C474" t="n">
         <v>0.06</v>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0.03524742403258531</v>
+        <v>0.0352474240325853</v>
       </c>
       <c r="C476" t="n">
         <v>0.06</v>
@@ -13675,7 +13675,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.03440870265125744</v>
+        <v>0.03440870265125743</v>
       </c>
       <c r="C482" t="n">
         <v>0.06</v>
@@ -13810,7 +13810,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>0.03334075566192274</v>
+        <v>0.03334075566192272</v>
       </c>
       <c r="C487" t="n">
         <v>0.06</v>
@@ -13864,7 +13864,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0.03265837248641081</v>
+        <v>0.0326583724864108</v>
       </c>
       <c r="C489" t="n">
         <v>0.06</v>
@@ -13918,7 +13918,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0.03238542514642932</v>
+        <v>0.03238542514642931</v>
       </c>
       <c r="C491" t="n">
         <v>0.06</v>
@@ -13945,7 +13945,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0.03222773911773212</v>
+        <v>0.03222773911773211</v>
       </c>
       <c r="C492" t="n">
         <v>0.06</v>
@@ -13999,7 +13999,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0.03212599654558402</v>
+        <v>0.03212599654558401</v>
       </c>
       <c r="C494" t="n">
         <v>0.06</v>
@@ -14053,7 +14053,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0.03204427569849339</v>
+        <v>0.0320442756984934</v>
       </c>
       <c r="C496" t="n">
         <v>0.06</v>
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0.03199932615944368</v>
+        <v>0.03199932615944366</v>
       </c>
       <c r="C497" t="n">
         <v>0.06</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>0.03199932615944368</v>
+        <v>0.03199932615944366</v>
       </c>
       <c r="C498" t="n">
         <v>0.06</v>
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0.03172278702314414</v>
+        <v>0.03172278702314413</v>
       </c>
       <c r="C502" t="n">
         <v>0.06</v>
@@ -14377,7 +14377,7 @@
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0.03101765934577897</v>
+        <v>0.03101765934577896</v>
       </c>
       <c r="C508" t="n">
         <v>0.06</v>
@@ -14404,7 +14404,7 @@
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0.03100986105391083</v>
+        <v>0.03100986105391082</v>
       </c>
       <c r="C509" t="n">
         <v>0.06</v>
@@ -14431,7 +14431,7 @@
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0.03098202716030115</v>
+        <v>0.03098202716030116</v>
       </c>
       <c r="C510" t="n">
         <v>0.06</v>
@@ -14458,7 +14458,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0.03083167674781249</v>
+        <v>0.03083167674781247</v>
       </c>
       <c r="C511" t="n">
         <v>0.06</v>
@@ -14512,7 +14512,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>0.03076773099268961</v>
+        <v>0.0307677309926896</v>
       </c>
       <c r="C513" t="n">
         <v>0.06</v>
@@ -14620,7 +14620,7 @@
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0.03018620598966549</v>
+        <v>0.03018620598966548</v>
       </c>
       <c r="C517" t="n">
         <v>0.06</v>
@@ -14755,7 +14755,7 @@
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0.02951185575287563</v>
+        <v>0.02951185575287562</v>
       </c>
       <c r="C522" t="n">
         <v>0.06</v>
@@ -14782,7 +14782,7 @@
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0.02949396209160979</v>
+        <v>0.02949396209160978</v>
       </c>
       <c r="C523" t="n">
         <v>0.06</v>
@@ -14809,7 +14809,7 @@
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0.02944034460030599</v>
+        <v>0.02944034460030598</v>
       </c>
       <c r="C524" t="n">
         <v>0.06</v>
@@ -14890,7 +14890,7 @@
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0.02882681848678349</v>
+        <v>0.02882681848678348</v>
       </c>
       <c r="C527" t="n">
         <v>0.06</v>
@@ -14944,7 +14944,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>0.02855503489704622</v>
+        <v>0.02855503489704621</v>
       </c>
       <c r="C529" t="n">
         <v>0.06</v>
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="B530" t="n">
-        <v>0.02853235905983618</v>
+        <v>0.02853235905983616</v>
       </c>
       <c r="C530" t="n">
         <v>0.06</v>
@@ -14998,7 +14998,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>0.02848888992292658</v>
+        <v>0.02848888992292656</v>
       </c>
       <c r="C531" t="n">
         <v>0.06</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0.02839920081856127</v>
+        <v>0.02839920081856126</v>
       </c>
       <c r="C534" t="n">
         <v>0.06</v>
@@ -15160,7 +15160,7 @@
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0.02829542138796873</v>
+        <v>0.02829542138796872</v>
       </c>
       <c r="C537" t="n">
         <v>0.06</v>
@@ -15268,7 +15268,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0.02806996348662184</v>
+        <v>0.02806996348662183</v>
       </c>
       <c r="C541" t="n">
         <v>0.06</v>
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0.02798683318286518</v>
+        <v>0.02798683318286517</v>
       </c>
       <c r="C543" t="n">
         <v>0.06</v>
@@ -15457,7 +15457,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0.0275173325489168</v>
+        <v>0.02751733254891679</v>
       </c>
       <c r="C548" t="n">
         <v>0.06</v>
@@ -15511,7 +15511,7 @@
         </is>
       </c>
       <c r="B550" t="n">
-        <v>0.02746463879359226</v>
+        <v>0.02746463879359225</v>
       </c>
       <c r="C550" t="n">
         <v>0.06</v>
@@ -15538,7 +15538,7 @@
         </is>
       </c>
       <c r="B551" t="n">
-        <v>0.02731077870062687</v>
+        <v>0.02731077870062686</v>
       </c>
       <c r="C551" t="n">
         <v>0.06</v>
@@ -15565,7 +15565,7 @@
         </is>
       </c>
       <c r="B552" t="n">
-        <v>0.02718631873833014</v>
+        <v>0.02718631873833013</v>
       </c>
       <c r="C552" t="n">
         <v>0.06</v>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0.02713219702742854</v>
+        <v>0.02713219702742853</v>
       </c>
       <c r="C553" t="n">
         <v>0.06</v>
@@ -15619,7 +15619,7 @@
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0.02699108046503048</v>
+        <v>0.02699108046503047</v>
       </c>
       <c r="C554" t="n">
         <v>0.06</v>
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>0.02699108046503048</v>
+        <v>0.02699108046503047</v>
       </c>
       <c r="C555" t="n">
         <v>0.06</v>
@@ -15673,7 +15673,7 @@
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0.02699108046503048</v>
+        <v>0.02699108046503047</v>
       </c>
       <c r="C556" t="n">
         <v>0.06</v>
@@ -15754,7 +15754,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>0.02649895108797615</v>
+        <v>0.02649895108797614</v>
       </c>
       <c r="C559" t="n">
         <v>0.06</v>
@@ -15835,7 +15835,7 @@
         </is>
       </c>
       <c r="B562" t="n">
-        <v>0.02638939446399129</v>
+        <v>0.02638939446399128</v>
       </c>
       <c r="C562" t="n">
         <v>0.06</v>
@@ -16105,7 +16105,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0.02568240997420112</v>
+        <v>0.02568240997420111</v>
       </c>
       <c r="C572" t="n">
         <v>0.06</v>
@@ -16132,7 +16132,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0.02568240997420112</v>
+        <v>0.02568240997420111</v>
       </c>
       <c r="C573" t="n">
         <v>0.06</v>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0.02559516370214299</v>
+        <v>0.02559516370214298</v>
       </c>
       <c r="C574" t="n">
         <v>0.06</v>
@@ -16186,7 +16186,7 @@
         </is>
       </c>
       <c r="B575" t="n">
-        <v>0.02559516370214299</v>
+        <v>0.02559516370214298</v>
       </c>
       <c r="C575" t="n">
         <v>0.06</v>
@@ -16213,7 +16213,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0.02559516370214299</v>
+        <v>0.02559516370214298</v>
       </c>
       <c r="C576" t="n">
         <v>0.06</v>
@@ -16294,7 +16294,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0.02521548198118414</v>
+        <v>0.02521548198118413</v>
       </c>
       <c r="C579" t="n">
         <v>0.06</v>
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0.02521548198118414</v>
+        <v>0.02521548198118413</v>
       </c>
       <c r="C580" t="n">
         <v>0.06</v>
@@ -16348,7 +16348,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0.02521548198118414</v>
+        <v>0.02521548198118413</v>
       </c>
       <c r="C581" t="n">
         <v>0.06</v>
@@ -16375,7 +16375,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>0.02521548198118414</v>
+        <v>0.02521548198118413</v>
       </c>
       <c r="C582" t="n">
         <v>0.06</v>
@@ -16645,7 +16645,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0.02463975469109185</v>
+        <v>0.02463975469109184</v>
       </c>
       <c r="C592" t="n">
         <v>0.06</v>
@@ -16699,7 +16699,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0.02452716077949585</v>
+        <v>0.02452716077949584</v>
       </c>
       <c r="C594" t="n">
         <v>0.06</v>
@@ -16753,7 +16753,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0.02428865394450772</v>
+        <v>0.02428865394450771</v>
       </c>
       <c r="C596" t="n">
         <v>0.06</v>
@@ -17050,7 +17050,7 @@
         </is>
       </c>
       <c r="B607" t="n">
-        <v>0.02400487958640389</v>
+        <v>0.02400487958640388</v>
       </c>
       <c r="C607" t="n">
         <v>0.06</v>
@@ -17104,7 +17104,7 @@
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0.02395457677424362</v>
+        <v>0.02395457677424361</v>
       </c>
       <c r="C609" t="n">
         <v>0.06</v>
@@ -17185,7 +17185,7 @@
         </is>
       </c>
       <c r="B612" t="n">
-        <v>0.02339550066124429</v>
+        <v>0.0233955006612443</v>
       </c>
       <c r="C612" t="n">
         <v>0.06</v>
@@ -17239,7 +17239,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>0.0233509698369913</v>
+        <v>0.02335096983699131</v>
       </c>
       <c r="C614" t="n">
         <v>0.06</v>
@@ -17266,7 +17266,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0.02331701459683497</v>
+        <v>0.02331701459683498</v>
       </c>
       <c r="C615" t="n">
         <v>0.06</v>
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0.02269762247017724</v>
+        <v>0.02269762247017725</v>
       </c>
       <c r="C623" t="n">
         <v>0.06</v>
@@ -17536,7 +17536,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C625" t="n">
         <v>0.06</v>
@@ -17563,7 +17563,7 @@
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C626" t="n">
         <v>0.06</v>
@@ -17590,7 +17590,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C627" t="n">
         <v>0.06</v>
@@ -17617,7 +17617,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C628" t="n">
         <v>0.06</v>
@@ -17644,7 +17644,7 @@
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C629" t="n">
         <v>0.06</v>
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="B630" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C630" t="n">
         <v>0.06</v>
@@ -17698,7 +17698,7 @@
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0.02212897298356932</v>
+        <v>0.02212897298356931</v>
       </c>
       <c r="C631" t="n">
         <v>0.06</v>
